--- a/dati_quarra.xlsx
+++ b/dati_quarra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qisrl.sharepoint.com/sites/QuarraItalia/Documenti condivisi/APP/QI_APP rev. 9/rev. 9.4/quarra_dashboard_full_package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qisrl.sharepoint.com/sites/QuarraItalia/Documenti condivisi/APP/QI_APP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{75E282B4-6EDB-42E9-9FC0-572C0557DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90CF3FE-B5FD-4DDD-85DB-61A08D9764B4}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{75E282B4-6EDB-42E9-9FC0-572C0557DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B47260-BC42-4D55-9473-859574B9D20A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="710" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
+    <workbookView xWindow="2700" yWindow="588" windowWidth="19404" windowHeight="11028" tabRatio="710" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Produzione" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,52 +599,57 @@
         <v>26057.315299999998</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26458.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -720,7 +725,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,52 +862,57 @@
         <v>86447.56</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -978,7 +988,270 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B2" s="2">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25452.809999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44101.240000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45999.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B6" s="2">
+        <v>89354.559999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25558.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1583.4699999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B9" s="2">
+        <v>51511.140000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32656.170000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B11" s="2">
+        <v>52878.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B12" s="2">
+        <v>740.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B13" s="2">
+        <v>175800.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10246.789999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32451.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B16" s="2">
+        <v>58191.679999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B17" s="2">
+        <v>31467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659C5A5E-8227-4BEE-BA96-190295596C1B}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1273,7 @@
         <v>45660</v>
       </c>
       <c r="B2" s="2">
-        <v>29.69</v>
+        <v>61593.45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1008,7 +1281,7 @@
         <v>45667</v>
       </c>
       <c r="B3" s="2">
-        <v>25452.809999999998</v>
+        <v>38798.639999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,7 +1289,7 @@
         <v>45674</v>
       </c>
       <c r="B4" s="2">
-        <v>44101.240000000005</v>
+        <v>50234.19999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1297,7 @@
         <v>45681</v>
       </c>
       <c r="B5" s="2">
-        <v>45999.82</v>
+        <v>154550.15999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1305,7 @@
         <v>45688</v>
       </c>
       <c r="B6" s="2">
-        <v>89354.559999999998</v>
+        <v>174805.59999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1313,7 @@
         <v>45695</v>
       </c>
       <c r="B7" s="2">
-        <v>25558.75</v>
+        <v>203779.65999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1321,7 @@
         <v>45702</v>
       </c>
       <c r="B8" s="2">
-        <v>1583.4699999999998</v>
+        <v>228787.78999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1329,7 @@
         <v>45709</v>
       </c>
       <c r="B9" s="2">
-        <v>51511.140000000007</v>
+        <v>183898.04999999996</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1337,7 @@
         <v>45716</v>
       </c>
       <c r="B10" s="2">
-        <v>32656.170000000002</v>
+        <v>177058.53999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1345,7 @@
         <v>45723</v>
       </c>
       <c r="B11" s="2">
-        <v>52878.5</v>
+        <v>152276.82999999996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1353,7 @@
         <v>45730</v>
       </c>
       <c r="B12" s="2">
-        <v>740.57</v>
+        <v>151536.25999999995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,7 +1361,7 @@
         <v>45737</v>
       </c>
       <c r="B13" s="2">
-        <v>175800.9</v>
+        <v>57925.049999999945</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1096,7 +1369,7 @@
         <v>45744</v>
       </c>
       <c r="B14" s="2">
-        <v>10246.789999999999</v>
+        <v>47678.259999999937</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1377,7 @@
         <v>45751</v>
       </c>
       <c r="B15" s="2">
-        <v>32451.66</v>
+        <v>16397.799999999941</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,270 +1385,16 @@
         <v>45758</v>
       </c>
       <c r="B16" s="2">
-        <v>58191.679999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659C5A5E-8227-4BEE-BA96-190295596C1B}">
-  <dimension ref="A1:B53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45660</v>
-      </c>
-      <c r="B2" s="2">
-        <v>61593.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45667</v>
-      </c>
-      <c r="B3" s="2">
-        <v>38798.639999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45674</v>
-      </c>
-      <c r="B4" s="2">
-        <v>50234.19999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45681</v>
-      </c>
-      <c r="B5" s="2">
-        <v>154550.15999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B6" s="2">
-        <v>174805.59999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45695</v>
-      </c>
-      <c r="B7" s="2">
-        <v>203779.65999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45702</v>
-      </c>
-      <c r="B8" s="2">
-        <v>228787.78999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45709</v>
-      </c>
-      <c r="B9" s="2">
-        <v>183898.04999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45716</v>
-      </c>
-      <c r="B10" s="2">
-        <v>177058.53999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45723</v>
-      </c>
-      <c r="B11" s="2">
-        <v>152276.82999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45730</v>
-      </c>
-      <c r="B12" s="2">
-        <v>151536.25999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45737</v>
-      </c>
-      <c r="B13" s="2">
-        <v>57925.049999999945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45744</v>
-      </c>
-      <c r="B14" s="2">
-        <v>47678.259999999937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45751</v>
-      </c>
-      <c r="B15" s="2">
-        <v>16397.799999999941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45758</v>
-      </c>
-      <c r="B16" s="2">
         <v>44653.679999999949</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42478.53</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1529,6 +1548,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B40C4C4C4E10C34AAFAE36603C5A1F37" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e639f025271ee794351afa84a8a225cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0" xmlns:ns3="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7996e74884785ecd25cb78e7bc605c06" ns2:_="" ns3:_="">
     <xsd:import namespace="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
@@ -1735,27 +1774,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
+    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A6D09B-FD97-42F1-95CB-C7341B7D6562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1772,23 +1810,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
-    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dati_quarra.xlsx
+++ b/dati_quarra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qisrl.sharepoint.com/sites/QuarraItalia/Documenti condivisi/APP/QI_APP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{75E282B4-6EDB-42E9-9FC0-572C0557DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B47260-BC42-4D55-9473-859574B9D20A}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{75E282B4-6EDB-42E9-9FC0-572C0557DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{710BE028-ECB6-4F81-ACEF-5B3D2BC98D9F}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="588" windowWidth="19404" windowHeight="11028" tabRatio="710" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
+    <workbookView xWindow="3492" yWindow="564" windowWidth="11616" windowHeight="9240" tabRatio="710" activeTab="3" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Produzione" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DA67F-F202-4219-A782-BCDFA65E7E5F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26458.32</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -725,7 +730,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +876,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17728.89</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -988,7 +998,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1144,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3343.54</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1250,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659C5A5E-8227-4BEE-BA96-190295596C1B}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,8 +1412,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B18" s="2">
+        <v>56863.88</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1548,26 +1567,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B40C4C4C4E10C34AAFAE36603C5A1F37" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e639f025271ee794351afa84a8a225cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0" xmlns:ns3="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7996e74884785ecd25cb78e7bc605c06" ns2:_="" ns3:_="">
     <xsd:import namespace="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
@@ -1774,26 +1773,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
-    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A6D09B-FD97-42F1-95CB-C7341B7D6562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1810,4 +1810,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
+    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dati_quarra.xlsx
+++ b/dati_quarra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qisrl.sharepoint.com/sites/QuarraItalia/Documenti condivisi/APP/QI_APP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Quarra Italia srl\Quarra Italia - Documenti\APP\QI_APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{75E282B4-6EDB-42E9-9FC0-572C0557DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{710BE028-ECB6-4F81-ACEF-5B3D2BC98D9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA345E4E-A7A5-436B-9A66-D68D2DB99DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="564" windowWidth="11616" windowHeight="9240" tabRatio="710" activeTab="3" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
+    <workbookView xWindow="2904" yWindow="576" windowWidth="19404" windowHeight="11028" tabRatio="710" activeTab="3" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Produzione" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B19" s="2">
+        <v>26459.32</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -884,7 +889,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B19">
+        <v>737.9</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -998,7 +1008,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1162,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1456.19</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1265,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659C5A5E-8227-4BEE-BA96-190295596C1B}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,8 +1435,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B19" s="2">
+        <v>56145.59</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1567,6 +1586,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B40C4C4C4E10C34AAFAE36603C5A1F37" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e639f025271ee794351afa84a8a225cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0" xmlns:ns3="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7996e74884785ecd25cb78e7bc605c06" ns2:_="" ns3:_="">
     <xsd:import namespace="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
@@ -1773,27 +1812,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
+    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A6D09B-FD97-42F1-95CB-C7341B7D6562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1810,23 +1848,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
-    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dati_quarra.xlsx
+++ b/dati_quarra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Quarra Italia srl\Quarra Italia - Documenti\APP\QI_APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qisrl.sharepoint.com/sites/QuarraItalia/Documenti condivisi/APP/QI_APP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA345E4E-A7A5-436B-9A66-D68D2DB99DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{BA345E4E-A7A5-436B-9A66-D68D2DB99DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461FF81C-4746-4F98-8E02-83AA9B55C6A6}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="576" windowWidth="19404" windowHeight="11028" tabRatio="710" activeTab="3" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
+    <workbookView xWindow="-14540" yWindow="560" windowWidth="11960" windowHeight="19430" tabRatio="710" xr2:uid="{5A5D969A-950B-4272-967A-6CE438255C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Produzione" sheetId="1" r:id="rId1"/>
@@ -461,17 +461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DA67F-F202-4219-A782-BCDFA65E7E5F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45660</v>
       </c>
@@ -487,7 +487,7 @@
         <v>21169.39386</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45667</v>
       </c>
@@ -495,7 +495,7 @@
         <v>21169.39386</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45674</v>
       </c>
@@ -503,7 +503,7 @@
         <v>14579.393859999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45681</v>
       </c>
@@ -511,7 +511,7 @@
         <v>7379.3938600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45688</v>
       </c>
@@ -519,7 +519,7 @@
         <v>7380.3938600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45695</v>
       </c>
@@ -527,7 +527,7 @@
         <v>10290.76886</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45702</v>
       </c>
@@ -535,7 +535,7 @@
         <v>11712.76886</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45709</v>
       </c>
@@ -543,7 +543,7 @@
         <v>11714.76886</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45716</v>
       </c>
@@ -551,7 +551,7 @@
         <v>12580.10216</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45723</v>
       </c>
@@ -559,7 +559,7 @@
         <v>22248.768759999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45730</v>
       </c>
@@ -567,7 +567,7 @@
         <v>20984.102099999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45737</v>
       </c>
@@ -575,7 +575,7 @@
         <v>22378.959199999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45744</v>
       </c>
@@ -583,7 +583,7 @@
         <v>22381.959199999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45751</v>
       </c>
@@ -591,7 +591,7 @@
         <v>24493.709199999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45758</v>
       </c>
@@ -599,7 +599,7 @@
         <v>26057.315299999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45765</v>
       </c>
@@ -607,7 +607,7 @@
         <v>26458.32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45771</v>
       </c>
@@ -615,114 +615,114 @@
         <v>26458.32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45779</v>
       </c>
       <c r="B19" s="2">
-        <v>26459.32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19124.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
     </row>
   </sheetData>
@@ -735,16 +735,16 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45660</v>
       </c>
@@ -760,7 +760,7 @@
         <v>61623.14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45667</v>
       </c>
@@ -768,7 +768,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45674</v>
       </c>
@@ -776,7 +776,7 @@
         <v>55536.800000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45681</v>
       </c>
@@ -784,7 +784,7 @@
         <v>150315.78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45688</v>
       </c>
@@ -792,7 +792,7 @@
         <v>109610</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45695</v>
       </c>
@@ -800,7 +800,7 @@
         <v>54532.81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45702</v>
       </c>
@@ -808,7 +808,7 @@
         <v>26591.599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45709</v>
       </c>
@@ -816,7 +816,7 @@
         <v>6621.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45716</v>
       </c>
@@ -824,7 +824,7 @@
         <v>25816.66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45723</v>
       </c>
@@ -832,7 +832,7 @@
         <v>28096.79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45730</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45737</v>
       </c>
@@ -848,7 +848,7 @@
         <v>82189.69</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45744</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45751</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1171.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45758</v>
       </c>
@@ -872,7 +872,7 @@
         <v>86447.56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45765</v>
       </c>
@@ -880,7 +880,7 @@
         <v>30201</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45771</v>
       </c>
@@ -888,7 +888,7 @@
         <v>17728.89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45779</v>
       </c>
@@ -896,106 +896,111 @@
         <v>737.9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
     </row>
   </sheetData>
@@ -1008,16 +1013,16 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45660</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45667</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>25452.809999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45674</v>
       </c>
@@ -1049,7 +1054,7 @@
         <v>44101.240000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45681</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>45999.82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45688</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>89354.559999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45695</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>25558.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45702</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>1583.4699999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45709</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>51511.140000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45716</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>32656.170000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45723</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>52878.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45730</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>740.57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45737</v>
       </c>
@@ -1121,7 +1126,7 @@
         <v>175800.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45744</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>10246.789999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45751</v>
       </c>
@@ -1137,7 +1142,7 @@
         <v>32451.66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45758</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>58191.679999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45765</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>31467</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45771</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>3343.54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45779</v>
       </c>
@@ -1169,106 +1174,111 @@
         <v>1456.19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B20" s="2">
+        <v>31875.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
     </row>
   </sheetData>
@@ -1280,17 +1290,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659C5A5E-8227-4BEE-BA96-190295596C1B}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45660</v>
       </c>
@@ -1306,7 +1316,7 @@
         <v>61593.45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45667</v>
       </c>
@@ -1314,7 +1324,7 @@
         <v>38798.639999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45674</v>
       </c>
@@ -1322,7 +1332,7 @@
         <v>50234.19999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45681</v>
       </c>
@@ -1330,7 +1340,7 @@
         <v>154550.15999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45688</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>174805.59999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45695</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>203779.65999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45702</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>228787.78999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45709</v>
       </c>
@@ -1362,7 +1372,7 @@
         <v>183898.04999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45716</v>
       </c>
@@ -1370,7 +1380,7 @@
         <v>177058.53999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45723</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>152276.82999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45730</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>151536.25999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45737</v>
       </c>
@@ -1394,7 +1404,7 @@
         <v>57925.049999999945</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45744</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>47678.259999999937</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45751</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>16397.799999999941</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45758</v>
       </c>
@@ -1418,7 +1428,7 @@
         <v>44653.679999999949</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45765</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>42478.53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45771</v>
       </c>
@@ -1434,7 +1444,7 @@
         <v>56863.88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45779</v>
       </c>
@@ -1442,139 +1452,143 @@
         <v>56145.59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B20" s="2">
+        <v>39070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
@@ -1586,26 +1600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B40C4C4C4E10C34AAFAE36603C5A1F37" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e639f025271ee794351afa84a8a225cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0" xmlns:ns3="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7996e74884785ecd25cb78e7bc605c06" ns2:_="" ns3:_="">
     <xsd:import namespace="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
@@ -1812,26 +1806,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
-    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A6D09B-FD97-42F1-95CB-C7341B7D6562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1848,4 +1843,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8873939-6DA3-421E-BB1E-765FEDE0BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6CA25B-162F-4EAB-AFE6-3392973EEE38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9d6ac6c3-1463-4aa8-8239-975ad6ad4bb0"/>
+    <ds:schemaRef ds:uri="6b1832c3-5ce7-4a12-8ecb-da5f3893ad8c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>